--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43728,6 +43728,41 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>541000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43833,6 +43833,41 @@
         <v>541000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43868,6 +43868,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43903,6 +43903,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43938,6 +43938,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43975,6 +43975,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>72000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44010,6 +44010,41 @@
         <v>72000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44045,6 +44045,43 @@
         <v>219100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44082,6 +44082,76 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44152,6 +44152,78 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44224,6 +44224,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>118900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44259,6 +44259,41 @@
         <v>118900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>36100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44294,6 +44294,41 @@
         <v>36100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44329,6 +44329,76 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>63000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,6 +44399,41 @@
         <v>63000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>127000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44434,6 +44434,41 @@
         <v>127000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82024,6 +82024,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82059,6 +82059,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82094,6 +82094,41 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>185400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82129,6 +82129,41 @@
         <v>185400</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82164,6 +82164,43 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82201,6 +82201,41 @@
         </is>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2318"/>
+  <dimension ref="A1:I2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82236,6 +82236,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>610100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82271,6 +82271,41 @@
         <v>610100</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>2798500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82306,6 +82306,41 @@
         <v>2798500</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>4639000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82341,6 +82341,41 @@
         <v>4639000</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>1722800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82376,6 +82376,41 @@
         <v>1722800</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>1268300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82411,6 +82411,41 @@
         <v>1268300</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>1140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82446,6 +82446,41 @@
         <v>1140000</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>1439800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2325"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82481,6 +82481,41 @@
         <v>1439800</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>8500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5835.xlsx
+++ b/data/5835.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82516,6 +82516,41 @@
         <v>8500000</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>DOLMITE</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>3361000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
